--- a/newPAPPL/Test1.xlsx
+++ b/newPAPPL/Test1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz\Desktop\NewPappl\n_pappl\newPAPPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz\Desktop\DernierPAPPL\n_pappl\newPAPPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4BA387A-4EFE-4A1D-81CB-CADA159B4CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A06B1D-5DDF-4E67-B2F7-9B60446C827D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,26 +595,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -655,14 +643,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1014,12 +1014,12 @@
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" ht="34.5">
+    <row r="6" spans="1:5" ht="28.5">
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="E7" s="3" t="s">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1054,10 +1054,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="18">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1067,12 +1067,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9">
       <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1"/>
@@ -1080,10 +1080,10 @@
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
@@ -1094,46 +1094,44 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="13"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="15">
-        <v>2500</v>
-      </c>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="13"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="14"/>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="17"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="18"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="36" customHeight="1" thickBot="1">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="20">
         <f>E23-D23</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1142,16 +1140,16 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="14"/>
       <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23">
         <f>SUM(E29:E29)</f>
@@ -1244,14 +1242,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
